--- a/biology/Botanique/Nyssa_(genre)/Nyssa_(genre).xlsx
+++ b/biology/Botanique/Nyssa_(genre)/Nyssa_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nyssa est un genre botanique composé de 9 à 11 espèces d'arbres présents en Asie et Amérique du Nord, ainsi que plusieurs autres espèces aujourd'hui éteintes en Asie, Amérique et Europe.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nyssa aquatica L. – Tupelo aquatique (Amérique du Nord)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nyssa aquatica L. – Tupelo aquatique (Amérique du Nord)
 Nyssa biflora  Walter – (Amérique du Nord)
 Nyssa leptophylla  – Tupelo du Hunan  (Asie)
 Nyssa ogeche W.Bartram ex Marshall – (Amérique du Nord)
@@ -521,12 +535,46 @@
 Nyssa sinensis Oliv. – Tupelo de Chine (Asie)
 Nyssa sylvatica Marshall – Tupelo noir (Amérique du Nord)
 Nyssa ursina Small – (Amérique du Nord
-Nyssa yunnanensis W.C.Yin – Tupelo du Yunnan (Asie)
-Espèces éteintes
-Nyssa cooperi † Chandler (1961) (Europe) Éocène
+Nyssa yunnanensis W.C.Yin – Tupelo du Yunnan (Asie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nyssa_(genre)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nyssa_(genre)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nyssa cooperi † Chandler (1961) (Europe) Éocène
 Nyssa bilocularis † Reid &amp; Chandler (1933) (Europe) Éocène
 Nyssa oviformis  † E. Reid (1927) (Bretagne) Éocène Moyen
-Nyssa spatulata † Scott[2] (Clarno Formation, Oregon) Éocène Moyen
+Nyssa spatulata † Scott (Clarno Formation, Oregon) Éocène Moyen
 Sur les autres projets Wikimedia :
 Nyssa (genre), sur Wikimedia Commons
 </t>
